--- a/dataIn/resultswomanPergusa.xlsx
+++ b/dataIn/resultswomanPergusa.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Scripts\stsRankBuilder\dataIn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="190">
   <si>
     <t>Pos</t>
   </si>
@@ -472,9 +477,6 @@
   </si>
   <si>
     <t>D'ARRIGO</t>
-  </si>
-  <si>
-    <t>MIRELLA</t>
   </si>
   <si>
     <t>14/10/1972</t>
@@ -636,6 +638,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -964,12 +974,12 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1160,7 +1170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1207,7 +1217,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1254,7 +1264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1304,7 +1314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1354,7 +1364,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1451,7 +1461,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1498,7 +1508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1545,7 +1555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -1621,42 +1631,42 @@
         <v>74</v>
       </c>
       <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
         <v>152</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>153</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>154</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>155</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>156</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>157</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>158</v>
       </c>
-      <c r="P14" t="s">
-        <v>159</v>
-      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
         <v>160</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>161</v>
-      </c>
-      <c r="D15" t="s">
-        <v>162</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -1671,39 +1681,39 @@
         <v>43</v>
       </c>
       <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>164</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>165</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>166</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>167</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>168</v>
       </c>
-      <c r="P15" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
         <v>170</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>171</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -1715,78 +1725,78 @@
         <v>21</v>
       </c>
       <c r="H16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
         <v>173</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>174</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>175</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="s">
         <v>176</v>
       </c>
-      <c r="L16" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>177</v>
-      </c>
-      <c r="N16" t="s">
-        <v>178</v>
       </c>
       <c r="O16" t="s">
         <v>122</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
         <v>180</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>181</v>
-      </c>
-      <c r="D17" t="s">
-        <v>182</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" t="s">
         <v>183</v>
-      </c>
-      <c r="G17" t="s">
-        <v>184</v>
       </c>
       <c r="H17" t="s">
         <v>43</v>
       </c>
       <c r="I17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s">
         <v>185</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>186</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>187</v>
-      </c>
-      <c r="M17" t="s">
-        <v>188</v>
       </c>
       <c r="N17" s="1">
         <v>5.9027777777777778E-4</v>
       </c>
       <c r="O17" t="s">
+        <v>188</v>
+      </c>
+      <c r="P17" t="s">
         <v>189</v>
-      </c>
-      <c r="P17" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
